--- a/7-Gráficos/31. Gráfico de Gannt - Material(1).xlsx
+++ b/7-Gráficos/31. Gráfico de Gannt - Material(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damor\Dropbox\Hashtag (1)\Hashtag\Online\Conteúdos\Planilhas\2020\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cursos\excel\7-Gráficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9515E115-274D-4DC3-A7F3-278FAE961C03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3152EBE-543B-4E98-99F8-51BD0240EFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-11640" windowWidth="20730" windowHeight="11160" xr2:uid="{50AB6683-E87B-4499-B2D5-8EA602A39C51}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{50AB6683-E87B-4499-B2D5-8EA602A39C51}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico de Gantt" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,9 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -589,6 +592,481 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Do zero'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Início</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Do zero'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Separar materiais e ferramentas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Proteger e isolar tomadas e pisos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lixar paredes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Corrigir imperfeições com massa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aplicar selador</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Aplicar tinta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Do zero'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43833</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43835</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43836</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43837</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E1AC-4523-B282-F7FDE8BB872B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Do zero'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duração</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Do zero'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Separar materiais e ferramentas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Proteger e isolar tomadas e pisos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lixar paredes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Corrigir imperfeições com massa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aplicar selador</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Aplicar tinta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Do zero'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E1AC-4523-B282-F7FDE8BB872B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="457180240"/>
+        <c:axId val="457172032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="457180240"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457172032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="457172032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="43828"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457180240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -629,7 +1107,552 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1175,10 +2198,51 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57148</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D811FBE7-E437-044A-05D3-71E1E669A438}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1216,7 +2280,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1322,7 +2386,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1464,7 +2528,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1474,7 +2538,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBD3272-48BC-43D4-86D0-121FF6D1B713}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1570,8 +2636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4877BD24-7027-4758-8F80-E4307AC1636F}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1665,5 +2731,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>